--- a/EstimacionesPresupuestoI+D.xlsx
+++ b/EstimacionesPresupuestoI+D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takit\Desktop\PGPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PGPIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89CE79E-1161-4F93-9943-56C37190510B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54190B4F-0B74-450D-99B1-D7E0604433B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10230" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="15495" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="I+d" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>GASTOS DE PERSONAL</t>
   </si>
@@ -132,37 +132,31 @@
     <t>Consulta de aspectos legales e eticos del proyecto</t>
   </si>
   <si>
-    <t>Alquiler de oficina</t>
-  </si>
-  <si>
-    <t>Gastos de electricidad</t>
-  </si>
-  <si>
-    <t>Gastos de agua</t>
-  </si>
-  <si>
-    <t>Gastos en internet</t>
-  </si>
-  <si>
-    <t>Gastos alimenticios</t>
-  </si>
-  <si>
     <t>Gastos en servidores</t>
   </si>
   <si>
     <t>https://www.macnificos.com/qnap-tvs-951x-servidor-nas?gclid=EAIaIQobChMI3L2kkp7R5QIVB_hRCh2NHAl_EAYYBCABEgJP7_D_BwE#sku-QNA0297</t>
   </si>
   <si>
-    <t>https://www.idealista.com/alquiler-oficinas/granada-granada/</t>
-  </si>
-  <si>
     <t>Duracion en meses</t>
   </si>
   <si>
-    <t>Gastos de gas</t>
-  </si>
-  <si>
-    <t>https://www.orangetarifas.com/sem/fibra/?calldm=1&amp;tsource=generico&amp;buscador=google&amp;grupo=generico&amp;afdm=se&amp;gclid=EAIaIQobChMIlsaPn5_R5QIVkdDeCh005w04EAAYASAAEgJ6cvD_BwE&amp;utm_source=Digitalmedia&amp;utm_medium=semDistribuidores&amp;utm_term=leads_Digitalmedia_SEM_GENERICO_RES_PC&amp;utm_content=xxx&amp;utm_campaing=UND_112019&amp;AAC_PROMO_CODE=95002</t>
+    <t>Total gastos de contratación de personal programador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total gastos de contratación de personal de diseño </t>
+  </si>
+  <si>
+    <t>Total gastos de contratación de personal de documentación</t>
+  </si>
+  <si>
+    <t>https://www.daxx.com/blog/development-trends/it-salaries-software-developer-trends-2019#:~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year.</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.es/Sueldos/visual-designer-sueldo-SRCH_KO0,15.htm?countryRedirect=true</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?rlz=1C1CHBF_esES822ES822&amp;biw=1919&amp;bih=959&amp;ei=-cLFXYyBDsv4aIyzgpAP&amp;q=software+documentation+salary&amp;oq=software+documentation+salary&amp;gs_l=psy-ab.3..0i30.2365.3921..4023...0.0..0.101.818.8j1......0....1..gws-wiz.......0i7i30i19j0i19j0i8i7i30i19j0i13i30i19j0i13i5i30i19j0i7i30.8HAqn6c06bw&amp;ved=0ahUKEwjM4b3SrdvlAhVLPBoKHYyZAPIQ4dUDCAs&amp;uact=5</t>
   </si>
 </sst>
 </file>
@@ -616,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E779E267-DA2E-48FF-ABF8-195CAC91C758}">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +650,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -665,8 +659,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(D5)</f>
-        <v>8400</v>
+        <f>SUM(D5:D8)</f>
+        <v>54585</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,280 +675,257 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f>5*3050</f>
+        <v>15250</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <f>5*2887</f>
+        <v>14435</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <f>3*5500</f>
+        <v>16500</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <f>SUM(D7:D25)</f>
-        <v>36414.959999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="D9" s="2">
+        <f>SUM(D10:D22)</f>
+        <v>17221.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f>((395.1+200)*(B2-2)/2)</f>
         <v>5951</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f>(260 * (B2-2)/2)</f>
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f>4 * 156.84</f>
         <v>627.36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <f>B3*979</f>
         <v>5874</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <f>11.5 * (B2/2)</f>
         <v>126.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <f>(17.95*(B2-2))</f>
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <f>2000*B4</f>
-        <v>16000</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <f>30*B4</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21">
-        <f>80*B4</f>
-        <v>640</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <f>120*B4</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23">
-        <f>12.8*12</f>
-        <v>153.60000000000002</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <f>150*B4</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
         <f>2*(9.67*25)</f>
         <v>483.5</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
-        <f>SUM(D27:D35)</f>
+      <c r="D23" s="2">
+        <f>SUM(D24:D32)</f>
         <v>4880</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="D25">
         <f>(50*12)*B3</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D29">
+      <c r="D26">
         <f>(5*20*4)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D30">
+      <c r="D27">
         <f>40*6</f>
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D32">
+      <c r="D29">
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
+    <row r="30" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D34">
+      <c r="D31">
         <f>6*70</f>
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2">
-        <f>$D$26+$D$6+$D$4</f>
-        <v>49694.96</v>
+      <c r="D33" s="2">
+        <f>$D$23+$D$9+$D$4</f>
+        <v>76686.36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A5EA3BFF-2177-41FF-88DF-87E944913007}"/>
-    <hyperlink ref="E25" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
-    <hyperlink ref="E11" r:id="rId3" location="sku-QNA0297" display="https://www.macnificos.com/qnap-tvs-951x-servidor-nas?gclid=EAIaIQobChMI3L2kkp7R5QIVB_hRCh2NHAl_EAYYBCABEgJP7_D_BwE - sku-QNA0297" xr:uid="{2ACFFC73-A127-4A21-9EB6-E59CC8710761}"/>
-    <hyperlink ref="E19" r:id="rId4" xr:uid="{C08A8DA5-2552-49C2-ABC3-56DD4B25CBCC}"/>
-    <hyperlink ref="E23" r:id="rId5" display="https://www.orangetarifas.com/sem/fibra/?calldm=1&amp;tsource=generico&amp;buscador=google&amp;grupo=generico&amp;afdm=se&amp;gclid=EAIaIQobChMIlsaPn5_R5QIVkdDeCh005w04EAAYASAAEgJ6cvD_BwE&amp;utm_source=Digitalmedia&amp;utm_medium=semDistribuidores&amp;utm_term=leads_Digitalmedia_SEM_GENERICO_RES_PC&amp;utm_content=xxx&amp;utm_campaing=UND_112019&amp;AAC_PROMO_CODE=95002" xr:uid="{C7F51A85-AA18-480F-BD8B-800BDA9E1B9C}"/>
+    <hyperlink ref="E22" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
+    <hyperlink ref="E14" r:id="rId3" location="sku-QNA0297" display="https://www.macnificos.com/qnap-tvs-951x-servidor-nas?gclid=EAIaIQobChMI3L2kkp7R5QIVB_hRCh2NHAl_EAYYBCABEgJP7_D_BwE - sku-QNA0297" xr:uid="{2ACFFC73-A127-4A21-9EB6-E59CC8710761}"/>
+    <hyperlink ref="E6" r:id="rId4" location=":~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." display="https://www.daxx.com/blog/development-trends/it-salaries-software-developer-trends-2019 - :~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." xr:uid="{DD30B966-E32B-43B3-9CC8-80EE81BE6ADA}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{FC7E32F4-1C0D-4DA4-9FAA-98F181F61AE4}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://www.google.com/search?rlz=1C1CHBF_esES822ES822&amp;biw=1919&amp;bih=959&amp;ei=-cLFXYyBDsv4aIyzgpAP&amp;q=software+documentation+salary&amp;oq=software+documentation+salary&amp;gs_l=psy-ab.3..0i30.2365.3921..4023...0.0..0.101.818.8j1......0....1..gws-wiz.......0i7i30i19j0i19j0i8i7i30i19j0i13i30i19j0i13i5i30i19j0i7i30.8HAqn6c06bw&amp;ved=0ahUKEwjM4b3SrdvlAhVLPBoKHYyZAPIQ4dUDCAs&amp;uact=5" xr:uid="{10AD0CDA-24A0-4A67-94C0-58F7E1F37DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EstimacionesPresupuestoI+D.xlsx
+++ b/EstimacionesPresupuestoI+D.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PGPIProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takit\PGPIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54190B4F-0B74-450D-99B1-D7E0604433B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A687D2-4FB4-4A18-89E0-A67485F70782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="15495" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="I+d" sheetId="1" r:id="rId1"/>
+    <sheet name="Flujo de Cajas + VAN + TIR" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>GASTOS DE PERSONAL</t>
   </si>
@@ -157,13 +158,166 @@
   </si>
   <si>
     <t>https://www.google.com/search?rlz=1C1CHBF_esES822ES822&amp;biw=1919&amp;bih=959&amp;ei=-cLFXYyBDsv4aIyzgpAP&amp;q=software+documentation+salary&amp;oq=software+documentation+salary&amp;gs_l=psy-ab.3..0i30.2365.3921..4023...0.0..0.101.818.8j1......0....1..gws-wiz.......0i7i30i19j0i19j0i8i7i30i19j0i13i30i19j0i13i5i30i19j0i7i30.8HAqn6c06bw&amp;ved=0ahUKEwjM4b3SrdvlAhVLPBoKHYyZAPIQ4dUDCAs&amp;uact=5</t>
+  </si>
+  <si>
+    <t>% Impuestos y SS</t>
+  </si>
+  <si>
+    <t>Contingencias comunes</t>
+  </si>
+  <si>
+    <t>FOGASA</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Desempleo</t>
+  </si>
+  <si>
+    <t>Suma total de coste</t>
+  </si>
+  <si>
+    <t>1+E * SB</t>
+  </si>
+  <si>
+    <t>Sueldo neto</t>
+  </si>
+  <si>
+    <t>SB -(SB*T) - IRPF</t>
+  </si>
+  <si>
+    <t>SSCP</t>
+  </si>
+  <si>
+    <t>Amortizaciones</t>
+  </si>
+  <si>
+    <t>Amortizaciones mobiliario</t>
+  </si>
+  <si>
+    <t>Amortizaciones ordenadores</t>
+  </si>
+  <si>
+    <t>Software de diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobiliario </t>
+  </si>
+  <si>
+    <t>electronico</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Formacion de personal</t>
+  </si>
+  <si>
+    <t>Licencias software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal </t>
+  </si>
+  <si>
+    <t>Fungible</t>
+  </si>
+  <si>
+    <t>Total gastos</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Beneficios</t>
+  </si>
+  <si>
+    <t>Equipamiento: Ordenadores</t>
+  </si>
+  <si>
+    <t>Gastos en investigacion</t>
+  </si>
+  <si>
+    <t>Equipamiento: mobiles</t>
+  </si>
+  <si>
+    <t>Equipamiento: Mobiliario</t>
+  </si>
+  <si>
+    <t>Total ingresos</t>
+  </si>
+  <si>
+    <t>TOTAL CON BENEFICIO Y IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL CON BENEFICIO </t>
+  </si>
+  <si>
+    <t>Gasto inicial</t>
+  </si>
+  <si>
+    <t>Secuencia</t>
+  </si>
+  <si>
+    <t>Gastos personal</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>Prestamo 4% semestral</t>
+  </si>
+  <si>
+    <t>No viable</t>
+  </si>
+  <si>
+    <t>Prestamo 11% cuatrimestral</t>
+  </si>
+  <si>
+    <t>Investigaciones</t>
+  </si>
+  <si>
+    <t>Gastos alimenticios</t>
+  </si>
+  <si>
+    <t>Subcontratacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +362,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +403,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,27 +455,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Cálculo" xfId="7" builtinId="22"/>
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -610,15 +798,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E779E267-DA2E-48FF-ABF8-195CAC91C758}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -660,7 +849,7 @@
       </c>
       <c r="D4" s="2">
         <f>SUM(D5:D8)</f>
-        <v>54585</v>
+        <v>70604.205000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,65 +857,95 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f>3*2800</f>
-        <v>8400</v>
+        <f>3*(2800*(1+B6))</f>
+        <v>11701.2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.39300000000000002</v>
+      </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6">
-        <f>5*3050</f>
-        <v>15250</v>
+        <f>5*(3050*(1+B6))</f>
+        <v>21243.25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>23.6</v>
+      </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7">
-        <f>5*2887</f>
-        <v>14435</v>
+        <f>5*(2887*(1+B6))</f>
+        <v>20107.954999999998</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>4.7</v>
+      </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8">
-        <f>3*5500</f>
-        <v>16500</v>
+        <f>3*(4200*(1+B6))</f>
+        <v>17551.800000000003</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.12</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(D10:D22)</f>
-        <v>17221.36</v>
+        <f>SUM(D10:D26)</f>
+        <v>17193.746666666666</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.6</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>0.1</v>
+      </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -736,6 +955,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6.7</v>
+      </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -745,6 +970,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>1.6</v>
+      </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -753,7 +981,10 @@
         <v>627.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -765,168 +996,707 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <f>-((((D12*0.1)/20)/12)*B4)</f>
+        <v>-8.6666666666666661</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <f>-((((D11*0.2)/10)/12)*B4)</f>
+        <v>-79.346666666666678</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <f>11.5 * (B2/2)</f>
         <v>126.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <f>(17.95*(B2-2))</f>
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <f>((0.39*4)*8)+((1.99+4)*8)</f>
+        <v>60.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <f>2*(9.67*25)</f>
         <v>483.5</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <f>SUM(D24:D32)</f>
+      <c r="D27" s="2">
+        <f>SUM(D28:D36)</f>
         <v>4880</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <f>(50*12)*B3</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <f>(5*20*4)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <f>40*6</f>
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="5" t="s">
+    <row r="34" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <f>6*70</f>
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="2">
-        <f>$D$23+$D$9+$D$4</f>
-        <v>76686.36</v>
+      <c r="D37" s="2">
+        <f>$D$27+$D$9+$D$4</f>
+        <v>92677.95166666666</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2">
+        <f>($D$27+$D$9+$D$4)*1.43</f>
+        <v>132529.47088333333</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D38*1.21</f>
+        <v>160360.65976883331</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A5EA3BFF-2177-41FF-88DF-87E944913007}"/>
-    <hyperlink ref="E22" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
+    <hyperlink ref="E26" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
     <hyperlink ref="E14" r:id="rId3" location="sku-QNA0297" display="https://www.macnificos.com/qnap-tvs-951x-servidor-nas?gclid=EAIaIQobChMI3L2kkp7R5QIVB_hRCh2NHAl_EAYYBCABEgJP7_D_BwE - sku-QNA0297" xr:uid="{2ACFFC73-A127-4A21-9EB6-E59CC8710761}"/>
     <hyperlink ref="E6" r:id="rId4" location=":~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." display="https://www.daxx.com/blog/development-trends/it-salaries-software-developer-trends-2019 - :~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." xr:uid="{DD30B966-E32B-43B3-9CC8-80EE81BE6ADA}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{FC7E32F4-1C0D-4DA4-9FAA-98F181F61AE4}"/>
     <hyperlink ref="E8" r:id="rId6" display="https://www.google.com/search?rlz=1C1CHBF_esES822ES822&amp;biw=1919&amp;bih=959&amp;ei=-cLFXYyBDsv4aIyzgpAP&amp;q=software+documentation+salary&amp;oq=software+documentation+salary&amp;gs_l=psy-ab.3..0i30.2365.3921..4023...0.0..0.101.818.8j1......0....1..gws-wiz.......0i7i30i19j0i19j0i8i7i30i19j0i13i30i19j0i13i5i30i19j0i7i30.8HAqn6c06bw&amp;ved=0ahUKEwjM4b3SrdvlAhVLPBoKHYyZAPIQ4dUDCAs&amp;uact=5" xr:uid="{10AD0CDA-24A0-4A67-94C0-58F7E1F37DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802B4F9-1648-42BA-97DD-2A831C3008FA}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>70000</v>
+      </c>
+      <c r="J2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <f>-5951</f>
+        <v>-5951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <f>-(12*1000)</f>
+        <v>-12000</v>
+      </c>
+      <c r="G4">
+        <f>-(10*1000)</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <f>-(E19/8)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="D6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="E6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="F6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="G6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="H6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="I6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="J6">
+        <f>-8825.525625</f>
+        <v>-8825.5256250000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <f>-(126.5+60.4+359)</f>
+        <v>-545.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <f>-2600</f>
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <f>-4240</f>
+        <v>-4240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <f>-627.36</f>
+        <v>-627.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <f>-((((B3*0.2)/12)/10)*8)+-((((B8*0.1)/20)/12)*8)</f>
+        <v>88.013333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12">
+        <v>-483.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4">
+        <v>160360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4">
+        <f>-(SUM(B3:J13))</f>
+        <v>107463.95166666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B15-B16</f>
+        <v>52896.048333333354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B17*0.21</f>
+        <v>11108.170150000004</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <f>-(SUM(B3:B13))</f>
+        <v>26464.260000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>70604.205000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B2:B13)</f>
+        <v>-26464.260000000002</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C13)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D13)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E13)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F2:F13)</f>
+        <v>61174.474374999998</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G2:G13)</f>
+        <v>-18825.525625000002</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H2:H13)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I2:I13)</f>
+        <v>-8825.5256250000002</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J2:J13)</f>
+        <v>80778.987708333341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B23</f>
+        <v>-26464.260000000002</v>
+      </c>
+      <c r="C24">
+        <f>SUM(B23:C23)</f>
+        <v>-35289.785625000004</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B23:D23)</f>
+        <v>-44115.311250000006</v>
+      </c>
+      <c r="E24">
+        <f>SUM(B23:E23)</f>
+        <v>-52940.836875000008</v>
+      </c>
+      <c r="F24">
+        <f>SUM(B23:F23)</f>
+        <v>8233.6374999999898</v>
+      </c>
+      <c r="G24">
+        <f>SUM(B23:G23)</f>
+        <v>-10591.888125000012</v>
+      </c>
+      <c r="H24">
+        <f>SUM(B23:H23)</f>
+        <v>-19417.413750000014</v>
+      </c>
+      <c r="I24">
+        <f>SUM(B23:I23)</f>
+        <v>-28242.939375000016</v>
+      </c>
+      <c r="J24">
+        <f>SUM(B23:J23)</f>
+        <v>52536.048333333325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>B24</f>
+        <v>-26464.260000000002</v>
+      </c>
+      <c r="F27">
+        <f>F24/(1+B25)</f>
+        <v>7417.6914414414314</v>
+      </c>
+      <c r="J27">
+        <f>J24/POWER((1+B25), 2)</f>
+        <v>42639.435381327261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4">
+        <f>SUM(B27:J27)</f>
+        <v>23592.86682276869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B24</f>
+        <v>-26464.260000000002</v>
+      </c>
+      <c r="D32">
+        <f>D24/POWER(1+B30,2)</f>
+        <v>-40787.085105399412</v>
+      </c>
+      <c r="F32">
+        <f>F24/POWER(1+B30,3)</f>
+        <v>7319.6737561162854</v>
+      </c>
+      <c r="H32">
+        <f>F24/POWER(1+B30,4)</f>
+        <v>7038.1478424195047</v>
+      </c>
+      <c r="J32">
+        <f>J24/POWER((1+B30), 5)</f>
+        <v>43180.802207186112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="8">
+        <f>SUM(B32:J32)</f>
+        <v>-9712.7212996774979</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="9">
+        <f>IRR(B23:J23)</f>
+        <v>0.14126452171824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EstimacionesPresupuestoI+D.xlsx
+++ b/EstimacionesPresupuestoI+D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takit\PGPIProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PGPIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A687D2-4FB4-4A18-89E0-A67485F70782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F940950-A992-4B30-8ED6-68EB9000015B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="I+d" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>GASTOS DE PERSONAL</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>Subcontratacion</t>
+  </si>
+  <si>
+    <t>SUMA SECUENCIA</t>
+  </si>
+  <si>
+    <t>Mantenimiento Oficina</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Oficina</t>
+  </si>
+  <si>
+    <t>Euipamiento: servidores</t>
   </si>
 </sst>
 </file>
@@ -499,6 +511,896 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Flow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Tables</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flujo de Cajas + VAN + TIR'!$B$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-26464.260000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14869.525625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8995.5256250000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8995.5256250000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61004.474374999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18995.525625000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8995.5256250000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8995.5256250000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80608.987708333341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3119-44DB-97C9-9345262F289A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="479269664"/>
+        <c:axId val="479270648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="479269664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479270648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479270648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479269664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E010BA6-72A2-4637-BF9D-861FA5B58352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E779E267-DA2E-48FF-ABF8-195CAC91C758}">
-  <dimension ref="A2:E39"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,8 +1828,8 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(D10:D26)</f>
-        <v>17193.746666666666</v>
+        <f>SUM(D10:D27)</f>
+        <v>18553.746666666666</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1957,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1070,170 +1972,179 @@
         <v>60.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <f>170*B4</f>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>2*(9.67*25)</f>
         <v>483.5</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
-        <f>SUM(D28:D36)</f>
+      <c r="D28" s="2">
+        <f>SUM(D29:D37)</f>
         <v>4880</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>(50*12)*B3</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>(5*20*4)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>40*6</f>
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
+    <row r="33" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="5" t="s">
+    <row r="35" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>6*70</f>
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2">
-        <f>$D$27+$D$9+$D$4</f>
-        <v>92677.95166666666</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2">
-        <f>($D$27+$D$9+$D$4)*1.43</f>
-        <v>132529.47088333333</v>
+        <f>$D$28+$D$9+$D$4</f>
+        <v>94037.95166666666</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2">
+        <f>($D$28+$D$9+$D$4)*1.43</f>
+        <v>134474.27088333332</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="2">
-        <f>D38*1.21</f>
-        <v>160360.65976883331</v>
+      <c r="D40" s="2">
+        <f>D39*1.21</f>
+        <v>162713.8677688333</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A5EA3BFF-2177-41FF-88DF-87E944913007}"/>
-    <hyperlink ref="E26" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
-    <hyperlink ref="E14" r:id="rId3" location="sku-QNA0297" display="https://www.macnificos.com/qnap-tvs-951x-servidor-nas?gclid=EAIaIQobChMI3L2kkp7R5QIVB_hRCh2NHAl_EAYYBCABEgJP7_D_BwE - sku-QNA0297" xr:uid="{2ACFFC73-A127-4A21-9EB6-E59CC8710761}"/>
+    <hyperlink ref="E27" r:id="rId2" display="https://www.google.com/search?rlz=1C1CHBD_esES870ES870&amp;ei=zG7AXa-rOJClUqWrtogB&amp;q=salario+transportista&amp;oq=salario+transportista&amp;gs_l=psy-ab.3..0j0i30l2j0i8i30l6.3385.4344..4456...0.1..0.106.745.8j1......0....1..gws-wiz.......0i71j0i13j0i13i30j0i8i13i30.jfkqw3BniIg&amp;ved=0ahUKEwivwbnVmNHlAhWQkhQKHaWVDREQ4dUDCAs&amp;uact=5" xr:uid="{11D9247F-F427-4A5C-811F-A4B70A2A4A08}"/>
+    <hyperlink ref="E14" r:id="rId3" location="sku-QNA0297" xr:uid="{2ACFFC73-A127-4A21-9EB6-E59CC8710761}"/>
     <hyperlink ref="E6" r:id="rId4" location=":~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." display="https://www.daxx.com/blog/development-trends/it-salaries-software-developer-trends-2019 - :~:targetText=Software%20Engineer%20Salaries%20in%20Europe%2C%20February%202019&amp;targetText=French%2C%20Finnish%2C%20and%20Dutch%20developers,to%20%2455K%20per%20year." xr:uid="{DD30B966-E32B-43B3-9CC8-80EE81BE6ADA}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{FC7E32F4-1C0D-4DA4-9FAA-98F181F61AE4}"/>
     <hyperlink ref="E8" r:id="rId6" display="https://www.google.com/search?rlz=1C1CHBF_esES822ES822&amp;biw=1919&amp;bih=959&amp;ei=-cLFXYyBDsv4aIyzgpAP&amp;q=software+documentation+salary&amp;oq=software+documentation+salary&amp;gs_l=psy-ab.3..0i30.2365.3921..4023...0.0..0.101.818.8j1......0....1..gws-wiz.......0i7i30i19j0i19j0i8i7i30i19j0i13i30i19j0i13i5i30i19j0i7i30.8HAqn6c06bw&amp;ved=0ahUKEwjM4b3SrdvlAhVLPBoKHYyZAPIQ4dUDCAs&amp;uact=5" xr:uid="{10AD0CDA-24A0-4A67-94C0-58F7E1F37DD7}"/>
@@ -1245,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802B4F9-1648-42BA-97DD-2A831C3008FA}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,35 +2244,35 @@
         <v>61</v>
       </c>
       <c r="C6">
-        <f>-(E19/8)</f>
+        <f>-(B22/8)</f>
         <v>-8825.5256250000002</v>
       </c>
       <c r="D6">
-        <f>-8825.525625</f>
+        <f t="shared" ref="D6:J6" si="0">-8825.525625</f>
         <v>-8825.5256250000002</v>
       </c>
       <c r="E6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
       <c r="F6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
       <c r="G6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
       <c r="H6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
       <c r="I6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
       <c r="J6">
-        <f>-8825.525625</f>
+        <f t="shared" si="0"/>
         <v>-8825.5256250000002</v>
       </c>
     </row>
@@ -1403,300 +2314,351 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>-5874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <f>-((((B3*0.2)/12)/10)*8)+-((((B8*0.1)/20)/12)*8)</f>
         <v>88.013333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12">
-        <v>-483.5</v>
-      </c>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13">
-        <v>-500</v>
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <f>-1360/8</f>
+        <v>-170</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:J13" si="1">-1360/8</f>
+        <v>-170</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <v>-483.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="4">
-        <v>160360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4">
-        <f>-(SUM(B3:J13))</f>
-        <v>107463.95166666665</v>
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>-500</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4">
-        <f>B15-B16</f>
-        <v>52896.048333333354</v>
+        <v>160361</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4">
+        <f>-(SUM(B3:J15))</f>
+        <v>114697.95166666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B17-B18</f>
+        <v>45663.048333333354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="4">
-        <f>B17*0.21</f>
-        <v>11108.170150000004</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B20">
+        <f>B19*0.21</f>
+        <v>9589.2401500000033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18">
-        <f>-(SUM(B3:B13))</f>
+      <c r="B21">
+        <f>-(SUM(B3:B15))</f>
         <v>26464.260000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19">
+      <c r="B22">
         <v>70604.205000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B23">
-        <f>SUM(B2:B13)</f>
+      <c r="B25">
+        <f t="shared" ref="B25:J25" si="2">SUM(B2:B15)</f>
         <v>-26464.260000000002</v>
       </c>
-      <c r="C23">
-        <f>SUM(C2:C13)</f>
-        <v>-8825.5256250000002</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D2:D13)</f>
-        <v>-8825.5256250000002</v>
-      </c>
-      <c r="E23">
-        <f>SUM(E2:E13)</f>
-        <v>-8825.5256250000002</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F2:F13)</f>
-        <v>61174.474374999998</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G2:G13)</f>
-        <v>-18825.525625000002</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H2:H13)</f>
-        <v>-8825.5256250000002</v>
-      </c>
-      <c r="I23">
-        <f>SUM(I2:I13)</f>
-        <v>-8825.5256250000002</v>
-      </c>
-      <c r="J23">
-        <f>SUM(J2:J13)</f>
-        <v>80778.987708333341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>B23</f>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>-14869.525625</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>-8995.5256250000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-8995.5256250000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>61004.474374999998</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>-18995.525625000002</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-8995.5256250000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-8995.5256250000002</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>80608.987708333341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <f>B25</f>
         <v>-26464.260000000002</v>
       </c>
-      <c r="C24">
-        <f>SUM(B23:C23)</f>
-        <v>-35289.785625000004</v>
-      </c>
-      <c r="D24">
-        <f>SUM(B23:D23)</f>
-        <v>-44115.311250000006</v>
-      </c>
-      <c r="E24">
-        <f>SUM(B23:E23)</f>
-        <v>-52940.836875000008</v>
-      </c>
-      <c r="F24">
-        <f>SUM(B23:F23)</f>
-        <v>8233.6374999999898</v>
-      </c>
-      <c r="G24">
-        <f>SUM(B23:G23)</f>
-        <v>-10591.888125000012</v>
-      </c>
-      <c r="H24">
-        <f>SUM(B23:H23)</f>
-        <v>-19417.413750000014</v>
-      </c>
-      <c r="I24">
-        <f>SUM(B23:I23)</f>
-        <v>-28242.939375000016</v>
-      </c>
-      <c r="J24">
-        <f>SUM(B23:J23)</f>
-        <v>52536.048333333325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C26">
+        <f>SUM(B25:C25)</f>
+        <v>-41333.785625000004</v>
+      </c>
+      <c r="D26">
+        <f>SUM(B25:D25)</f>
+        <v>-50329.311250000006</v>
+      </c>
+      <c r="E26">
+        <f>SUM(B25:E25)</f>
+        <v>-59324.836875000008</v>
+      </c>
+      <c r="F26">
+        <f>SUM(B25:F25)</f>
+        <v>1679.6374999999898</v>
+      </c>
+      <c r="G26">
+        <f>SUM(B25:G25)</f>
+        <v>-17315.888125000012</v>
+      </c>
+      <c r="H26">
+        <f>SUM(B25:H25)</f>
+        <v>-26311.413750000014</v>
+      </c>
+      <c r="I26">
+        <f>SUM(B25:I25)</f>
+        <v>-35306.939375000016</v>
+      </c>
+      <c r="J26">
+        <f>SUM(B25:J25)</f>
+        <v>45302.048333333325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B27" s="10">
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>B24</f>
+    <row r="29" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B26</f>
         <v>-26464.260000000002</v>
       </c>
-      <c r="F27">
-        <f>F24/(1+B25)</f>
-        <v>7417.6914414414314</v>
-      </c>
-      <c r="J27">
-        <f>J24/POWER((1+B25), 2)</f>
-        <v>42639.435381327261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="F29">
+        <f>F26/(1+B27)</f>
+        <v>1513.1869369369276</v>
+      </c>
+      <c r="J29">
+        <f>J26/POWER((1+B27), 2)</f>
+        <v>36768.158699239764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(B27:J27)</f>
-        <v>23592.86682276869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="4">
+        <f>SUM(B29:J29)</f>
+        <v>11817.085636176689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B32" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>B24</f>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>B26</f>
         <v>-26464.260000000002</v>
       </c>
-      <c r="D32">
-        <f>D24/POWER(1+B30,2)</f>
-        <v>-40787.085105399412</v>
-      </c>
-      <c r="F32">
-        <f>F24/POWER(1+B30,3)</f>
-        <v>7319.6737561162854</v>
-      </c>
-      <c r="H32">
-        <f>F24/POWER(1+B30,4)</f>
-        <v>7038.1478424195047</v>
-      </c>
-      <c r="J32">
-        <f>J24/POWER((1+B30), 5)</f>
-        <v>43180.802207186112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D34">
+        <f>D26/POWER(1+B32,2)</f>
+        <v>-46532.277413091717</v>
+      </c>
+      <c r="F34">
+        <f>F26/POWER(1+B32,3)</f>
+        <v>1493.1916213871095</v>
+      </c>
+      <c r="H34">
+        <f>F26/POWER(1+B32,4)</f>
+        <v>1435.7611744106821</v>
+      </c>
+      <c r="J34">
+        <f>J26/POWER((1+B32), 5)</f>
+        <v>37234.981516888962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="8">
-        <f>SUM(B32:J32)</f>
-        <v>-9712.7212996774979</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B35" s="8">
+        <f>SUM(B34:J34)</f>
+        <v>-32832.603100404958</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="9">
-        <f>IRR(B23:J23)</f>
-        <v>0.14126452171824</v>
+      <c r="B37" s="9">
+        <f>IRR(B25:J25)</f>
+        <v>0.11410862334542937</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EstimacionesPresupuestoI+D.xlsx
+++ b/EstimacionesPresupuestoI+D.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PGPIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F940950-A992-4B30-8ED6-68EB9000015B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB441A-560E-45B5-8635-64E6D799B47C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15495" activeTab="2" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="I+d" sheetId="1" r:id="rId1"/>
     <sheet name="Flujo de Cajas + VAN + TIR" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>GASTOS DE PERSONAL</t>
   </si>
@@ -115,9 +116,6 @@
     <t>Folletos de información</t>
   </si>
   <si>
-    <t>Seminarios de entrenamiento</t>
-  </si>
-  <si>
     <t>Gastos de inscripción en congresos y seminarios relacionados con la actividad</t>
   </si>
   <si>
@@ -323,6 +321,12 @@
   </si>
   <si>
     <t>Euipamiento: servidores</t>
+  </si>
+  <si>
+    <t>Formacion de Personal</t>
+  </si>
+  <si>
+    <t>Consultoria legal</t>
   </si>
 </sst>
 </file>
@@ -608,12 +612,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Flujo de Cajas + VAN + TIR'!$B$25:$J$25</c:f>
+              <c:f>'Flujo de Cajas + VAN + TIR'!$B$26:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-26464.260000000002</c:v>
+                  <c:v>-27164.260000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-14869.525625</c:v>
@@ -1374,7 +1378,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1703,7 +1707,7 @@
   <dimension ref="A2:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -1768,38 +1772,38 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6">
         <v>0.39300000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <f>5*(3050*(1+B6))</f>
         <v>21243.25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4">
         <v>23.6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <f>5*(2887*(1+B6))</f>
         <v>20107.954999999998</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,19 +1811,19 @@
         <v>4.7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <f>3*(4200*(1+B6))</f>
         <v>17551.800000000003</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -1834,7 +1838,7 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
         <v>0.6</v>
@@ -1858,7 +1862,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7">
         <v>6.7</v>
@@ -1885,22 +1889,22 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <f>B3*979</f>
         <v>5874</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1909,7 +1913,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <f>-((((D12*0.1)/20)/12)*B4)</f>
@@ -1919,7 +1923,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <f>-((((D11*0.2)/10)/12)*B4)</f>
@@ -1935,7 +1939,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <f>11.5 * (B2/2)</f>
@@ -1944,13 +1948,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <f>(17.95*(B2-2))</f>
@@ -1959,13 +1963,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <f>((0.39*4)*8)+((1.99+4)*8)</f>
@@ -1974,7 +1978,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <f>170*B4</f>
@@ -1989,7 +1993,7 @@
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -1997,7 +2001,7 @@
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2009,13 +2013,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>700</v>
@@ -2039,7 +2043,7 @@
       </c>
       <c r="D28" s="2">
         <f>SUM(D29:D37)</f>
-        <v>4880</v>
+        <v>26240</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,23 +2090,21 @@
         <v>26</v>
       </c>
       <c r="D34">
-        <f>200*1.1</f>
-        <v>220.00000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D36">
-        <f>6*70</f>
-        <v>420</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -2119,25 +2121,25 @@
       </c>
       <c r="D38" s="2">
         <f>$D$28+$D$9+$D$4</f>
-        <v>94037.95166666666</v>
+        <v>115397.95166666666</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2">
-        <f>($D$28+$D$9+$D$4)*1.43</f>
-        <v>134474.27088333332</v>
+        <f>($D$28+$D$9+$D$4)*1.26</f>
+        <v>145401.4191</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2">
         <f>D39*1.21</f>
-        <v>162713.8677688333</v>
+        <v>175935.71711100001</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802B4F9-1648-42BA-97DD-2A831C3008FA}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2202,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>70000</v>
@@ -2211,7 +2213,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <f>-5951</f>
@@ -2220,7 +2222,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <f>-(12*1000)</f>
@@ -2233,7 +2235,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2241,10 +2243,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <f>-(B22/8)</f>
+        <f>-(B23/8)</f>
         <v>-8825.5256250000002</v>
       </c>
       <c r="D6">
@@ -2278,7 +2280,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <f>-(126.5+60.4+359)</f>
@@ -2287,7 +2289,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <f>-2600</f>
@@ -2296,7 +2298,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <f>-4240</f>
@@ -2305,7 +2307,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <f>-627.36</f>
@@ -2314,7 +2316,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>-5874</v>
@@ -2322,7 +2324,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <f>-((((B3*0.2)/12)/10)*8)+-((((B8*0.1)/20)/12)*8)</f>
@@ -2331,7 +2333,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <f>-1360/8</f>
@@ -2368,297 +2370,409 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14">
-        <v>-483.5</v>
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>-700</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15">
+        <v>91</v>
+      </c>
+      <c r="J15">
+        <v>-483.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
         <v>-500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4">
-        <v>160361</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4">
-        <f>-(SUM(B3:J15))</f>
-        <v>114697.95166666665</v>
+        <v>175935.71711100001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4">
-        <f>B17-B18</f>
-        <v>45663.048333333354</v>
+        <f>-(SUM(B3:J16))</f>
+        <v>115397.95166666665</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20">
-        <f>B19*0.21</f>
-        <v>9589.2401500000033</v>
+        <v>63</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B18-B19</f>
+        <v>60537.765444333359</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <f>-(SUM(B3:B15))</f>
-        <v>26464.260000000002</v>
+        <f>B20*0.21</f>
+        <v>12712.930743310006</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22">
+        <f>-(SUM(B3:B16))</f>
+        <v>27164.260000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
         <v>70604.205000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:J25" si="2">SUM(B2:B15)</f>
-        <v>-26464.260000000002</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:J26" si="2">SUM(B2:B16)</f>
+        <v>-27164.260000000002</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="2"/>
         <v>-14869.525625</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f t="shared" si="2"/>
         <v>-8995.5256250000002</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="2"/>
         <v>-8995.5256250000002</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>61004.474374999998</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>-18995.525625000002</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>-8995.5256250000002</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <f t="shared" si="2"/>
         <v>-8995.5256250000002</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <f t="shared" si="2"/>
         <v>80608.987708333341</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26">
-        <f>B25</f>
-        <v>-26464.260000000002</v>
-      </c>
-      <c r="C26">
-        <f>SUM(B25:C25)</f>
-        <v>-41333.785625000004</v>
-      </c>
-      <c r="D26">
-        <f>SUM(B25:D25)</f>
-        <v>-50329.311250000006</v>
-      </c>
-      <c r="E26">
-        <f>SUM(B25:E25)</f>
-        <v>-59324.836875000008</v>
-      </c>
-      <c r="F26">
-        <f>SUM(B25:F25)</f>
-        <v>1679.6374999999898</v>
-      </c>
-      <c r="G26">
-        <f>SUM(B25:G25)</f>
-        <v>-17315.888125000012</v>
-      </c>
-      <c r="H26">
-        <f>SUM(B25:H25)</f>
-        <v>-26311.413750000014</v>
-      </c>
-      <c r="I26">
-        <f>SUM(B25:I25)</f>
-        <v>-35306.939375000016</v>
-      </c>
-      <c r="J26">
-        <f>SUM(B25:J25)</f>
-        <v>45302.048333333325</v>
-      </c>
-    </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>-27164.260000000002</v>
+      </c>
+      <c r="C27">
+        <f>SUM(B26:C26)</f>
+        <v>-42033.785625000004</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B26:D26)</f>
+        <v>-51029.311250000006</v>
+      </c>
+      <c r="E27">
+        <f>SUM(B26:E26)</f>
+        <v>-60024.836875000008</v>
+      </c>
+      <c r="F27">
+        <f>SUM(B26:F26)</f>
+        <v>979.63749999998981</v>
+      </c>
+      <c r="G27">
+        <f>SUM(B26:G26)</f>
+        <v>-18015.888125000012</v>
+      </c>
+      <c r="H27">
+        <f>SUM(B26:H26)</f>
+        <v>-27011.413750000014</v>
+      </c>
+      <c r="I27">
+        <f>SUM(B26:I26)</f>
+        <v>-36006.939375000016</v>
+      </c>
+      <c r="J27">
+        <f>SUM(B26:J26)</f>
+        <v>44602.048333333325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="10">
         <v>0.11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B27</f>
+        <v>-27164.260000000002</v>
+      </c>
+      <c r="F30">
+        <f>F27/(1+B28)</f>
+        <v>882.55630630629707</v>
+      </c>
+      <c r="J30">
+        <f>J27/POWER((1+B28), 2)</f>
+        <v>36200.022995968931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4">
+        <f>SUM(B30:J30)</f>
+        <v>9918.3193022752275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>B27</f>
+        <v>-27164.260000000002</v>
+      </c>
+      <c r="D35">
+        <f>D27/POWER(1+B33,2)</f>
+        <v>-47179.466762204145</v>
+      </c>
+      <c r="F35">
+        <f>F27/POWER(1+B33,3)</f>
+        <v>870.89417031746927</v>
+      </c>
+      <c r="H35">
+        <f>F27/POWER(1+B33,4)</f>
+        <v>837.39824068987423</v>
+      </c>
+      <c r="J35">
+        <f>J27/POWER((1+B33), 5)</f>
+        <v>36659.632542157415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="8">
+        <f>SUM(B35:J35)</f>
+        <v>-35975.801809039389</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>B26</f>
-        <v>-26464.260000000002</v>
-      </c>
-      <c r="F29">
-        <f>F26/(1+B27)</f>
-        <v>1513.1869369369276</v>
-      </c>
-      <c r="J29">
-        <f>J26/POWER((1+B27), 2)</f>
-        <v>36768.158699239764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="4">
-        <f>SUM(B29:J29)</f>
-        <v>11817.085636176689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>B26</f>
-        <v>-26464.260000000002</v>
-      </c>
-      <c r="D34">
-        <f>D26/POWER(1+B32,2)</f>
-        <v>-46532.277413091717</v>
-      </c>
-      <c r="F34">
-        <f>F26/POWER(1+B32,3)</f>
-        <v>1493.1916213871095</v>
-      </c>
-      <c r="H34">
-        <f>F26/POWER(1+B32,4)</f>
-        <v>1435.7611744106821</v>
-      </c>
-      <c r="J34">
-        <f>J26/POWER((1+B32), 5)</f>
-        <v>37234.981516888962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="8">
-        <f>SUM(B34:J34)</f>
-        <v>-32832.603100404958</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="9">
-        <f>IRR(B25:J25)</f>
-        <v>0.11410862334542937</v>
+      <c r="B38" s="9">
+        <f>IRR(B26:J26)</f>
+        <v>0.11124775350786575</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC54B44-A867-4ADA-A882-2969CB1D7E7B}">
+  <dimension ref="E4:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>70604.205000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>SUM(F7:F14)</f>
+        <v>292.41700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f>(F7/$E$6)*$J$4</f>
+        <v>120.72520578488937</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>(F8/$E$6)*$J$4</f>
+        <v>724.35123470933627</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>79.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G14" si="0">(F9/$E$6)*$J$4</f>
+        <v>19134.945116904968</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>42.25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10201.279888823152</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>42.25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10201.279888823152</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>8853.2622410290769</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>18591.681690872963</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>11.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2776.679733052456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/EstimacionesPresupuestoI+D.xlsx
+++ b/EstimacionesPresupuestoI+D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PGPIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB441A-560E-45B5-8635-64E6D799B47C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76842CE7-1402-49D3-BFF8-8BDC342908BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15495" activeTab="2" xr2:uid="{DF85E423-6D6D-425A-8C7C-A6D919EDE1EC}"/>
   </bookViews>
@@ -2675,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC54B44-A867-4ADA-A882-2969CB1D7E7B}">
-  <dimension ref="E4:J14"/>
+  <dimension ref="E4:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,6 +2771,16 @@
         <v>2776.679733052456</v>
       </c>
     </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>SUM(F7:F14)</f>
+        <v>292.41700000000003</v>
+      </c>
+      <c r="G16">
+        <f>SUM(G7:G14)</f>
+        <v>70604.205000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
